--- a/output/BSI_Processed_Report.xlsx
+++ b/output/BSI_Processed_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agentic AI\Projects\vms\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7DE9F6-D592-4EAB-B9C7-051970987B90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BD8D1-7742-4C2D-BB4D-EBC42572CF31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8196" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="1" r:id="rId1"/>
@@ -53999,7 +53999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -61879,8 +61879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/output/BSI_Processed_Report.xlsx
+++ b/output/BSI_Processed_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agentic AI\Projects\vms\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800BBFDC-2D9D-46F3-9880-F0FB3784B3D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACECE0E-ED4F-4697-B592-DD52D60E515E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="1" r:id="rId1"/>
@@ -8139,14 +8139,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="34.77734375" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.88671875" customWidth="1"/>
@@ -54002,8 +54002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AK173"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61874,7 +61874,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62160,7 +62160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
